--- a/medicine/Handicap/Tony_Attwood/Tony_Attwood.xlsx
+++ b/medicine/Handicap/Tony_Attwood/Tony_Attwood.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tony Attwood, né le 9 février 1952 à Birmingham, est un psychologue britannique spécialiste du syndrome d'Asperger et de l'autisme à haut niveau de fonctionnement[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tony Attwood, né le 9 février 1952 à Birmingham, est un psychologue britannique spécialiste du syndrome d'Asperger et de l'autisme à haut niveau de fonctionnement.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est diplômé en psychologie par l'université de Londres (PhD) où il est élève d'Uta Frith, en psychologie clinique par l'université de Surrey (M.A.), et à titre honorifique par l'université de Hull.
 Il vit en Australie et y dirige un établissement (à Brisbane) où il s'occupe de personnes avec syndrome d'Asperger. Auteur de nombreuses publications sur le spectre autistique en général et sur le syndrome d'Asperger en particulier, il s'est surtout fait connaître du grand public concerné par son livre publié en 1998, intitulé Asperger's Syndrome: A Guide for Parents and Professionals, traduit en français : Le syndrome d'Asperger et l'autisme de haut niveau.
